--- a/grupos/6ARHV - Estadisticos 20242.xlsx
+++ b/grupos/6ARHV - Estadisticos 20242.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="64">
   <si>
     <t>Materia</t>
   </si>
@@ -167,21 +167,21 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Martínez López Miguel Ángel</t>
+  </si>
+  <si>
+    <t>Pesce Bautista Victor Manuel</t>
+  </si>
+  <si>
+    <t>Camacho Juárez Sergio Eduardo</t>
+  </si>
+  <si>
+    <t>Vazquez Galarza Maria Miriam</t>
+  </si>
+  <si>
     <t>Jiménez Nieto Enrique</t>
   </si>
   <si>
-    <t>Martínez López Miguel Ángel</t>
-  </si>
-  <si>
-    <t>Vazquez Galarza Maria Miriam</t>
-  </si>
-  <si>
-    <t>Camacho Juárez Sergio Eduardo</t>
-  </si>
-  <si>
-    <t>Pesce Bautista Victor Manuel</t>
-  </si>
-  <si>
     <t>NC</t>
   </si>
   <si>
@@ -194,76 +194,22 @@
     <t>Nombres</t>
   </si>
   <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>XICALHUA</t>
-  </si>
-  <si>
     <t>CHONKOA</t>
   </si>
   <si>
-    <t>HUERTA</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
     <t>PUGA</t>
   </si>
   <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
-    <t>SILVESTRE</t>
-  </si>
-  <si>
-    <t>AGUILAR</t>
-  </si>
-  <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
     <t>SANDOVAL</t>
   </si>
   <si>
-    <t>JORGE</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
     <t>ROMERO</t>
   </si>
   <si>
-    <t>PALACIOS</t>
-  </si>
-  <si>
-    <t>OLIVARES</t>
-  </si>
-  <si>
-    <t>EMILIANO GERARDO</t>
-  </si>
-  <si>
-    <t>CRISTIAN LEOBARDO</t>
-  </si>
-  <si>
     <t>ABRIL</t>
   </si>
   <si>
-    <t>KARLA YARITZY</t>
-  </si>
-  <si>
-    <t>EVIAN ISSAIAS</t>
-  </si>
-  <si>
     <t>HILEN ALELI</t>
-  </si>
-  <si>
-    <t>EVELYN ROSALIA</t>
-  </si>
-  <si>
-    <t>MICHELLE</t>
   </si>
 </sst>
 </file>
@@ -777,19 +723,19 @@
         <v>-1</v>
       </c>
       <c r="I4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N4">
         <v>-1</v>
@@ -816,16 +762,16 @@
         <v>6</v>
       </c>
       <c r="V4">
+        <v>7</v>
+      </c>
+      <c r="W4">
         <v>6</v>
       </c>
-      <c r="W4">
-        <v>5</v>
-      </c>
       <c r="X4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -854,19 +800,19 @@
         <v>-1</v>
       </c>
       <c r="I5">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J5">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K5">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N5">
         <v>-1</v>
@@ -902,7 +848,7 @@
         <v>10</v>
       </c>
       <c r="Y5">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -931,19 +877,19 @@
         <v>-1</v>
       </c>
       <c r="I6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N6">
         <v>-1</v>
@@ -1008,19 +954,19 @@
         <v>-1</v>
       </c>
       <c r="I7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M7">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N7">
         <v>-1</v>
@@ -1044,7 +990,7 @@
         <v>5</v>
       </c>
       <c r="U7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V7">
         <v>7</v>
@@ -1053,10 +999,10 @@
         <v>6</v>
       </c>
       <c r="X7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1085,19 +1031,19 @@
         <v>-1</v>
       </c>
       <c r="I8">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K8">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L8">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M8">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N8">
         <v>-1</v>
@@ -1127,7 +1073,7 @@
         <v>10</v>
       </c>
       <c r="W8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X8">
         <v>9</v>
@@ -1162,19 +1108,19 @@
         <v>-1</v>
       </c>
       <c r="I9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J9">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M9">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N9">
         <v>-1</v>
@@ -1204,13 +1150,13 @@
         <v>9</v>
       </c>
       <c r="W9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X9">
         <v>8</v>
       </c>
       <c r="Y9">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1239,19 +1185,19 @@
         <v>-1</v>
       </c>
       <c r="I10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N10">
         <v>-1</v>
@@ -1316,19 +1262,19 @@
         <v>-1</v>
       </c>
       <c r="I11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J11">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M11">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N11">
         <v>-1</v>
@@ -1352,19 +1298,19 @@
         <v>6</v>
       </c>
       <c r="U11">
+        <v>7</v>
+      </c>
+      <c r="V11">
+        <v>7</v>
+      </c>
+      <c r="W11">
         <v>6</v>
       </c>
-      <c r="V11">
-        <v>6</v>
-      </c>
-      <c r="W11">
-        <v>5</v>
-      </c>
       <c r="X11">
         <v>7</v>
       </c>
       <c r="Y11">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1393,19 +1339,19 @@
         <v>-1</v>
       </c>
       <c r="I12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N12">
         <v>-1</v>
@@ -1470,19 +1416,19 @@
         <v>-1</v>
       </c>
       <c r="I13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N13">
         <v>-1</v>
@@ -1512,7 +1458,7 @@
         <v>8</v>
       </c>
       <c r="W13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X13">
         <v>8</v>
@@ -1547,19 +1493,19 @@
         <v>-1</v>
       </c>
       <c r="I14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N14">
         <v>-1</v>
@@ -1583,7 +1529,7 @@
         <v>8</v>
       </c>
       <c r="U14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V14">
         <v>9</v>
@@ -1595,7 +1541,7 @@
         <v>10</v>
       </c>
       <c r="Y14">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -1624,19 +1570,19 @@
         <v>-1</v>
       </c>
       <c r="I15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N15">
         <v>-1</v>
@@ -1672,7 +1618,7 @@
         <v>10</v>
       </c>
       <c r="Y15">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -1701,19 +1647,19 @@
         <v>-1</v>
       </c>
       <c r="I16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N16">
         <v>-1</v>
@@ -1749,7 +1695,7 @@
         <v>10</v>
       </c>
       <c r="Y16">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -1778,19 +1724,19 @@
         <v>-1</v>
       </c>
       <c r="I17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N17">
         <v>-1</v>
@@ -1814,7 +1760,7 @@
         <v>8</v>
       </c>
       <c r="U17">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V17">
         <v>8</v>
@@ -1855,19 +1801,19 @@
         <v>-1</v>
       </c>
       <c r="I18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N18">
         <v>-1</v>
@@ -1894,16 +1840,16 @@
         <v>8</v>
       </c>
       <c r="V18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y18">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -1932,19 +1878,19 @@
         <v>-1</v>
       </c>
       <c r="I19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N19">
         <v>-1</v>
@@ -1980,7 +1926,7 @@
         <v>9</v>
       </c>
       <c r="Y19">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -2009,19 +1955,19 @@
         <v>-1</v>
       </c>
       <c r="I20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K20">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L20">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N20">
         <v>-1</v>
@@ -2045,19 +1991,19 @@
         <v>5</v>
       </c>
       <c r="U20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X20">
         <v>7</v>
       </c>
       <c r="Y20">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -2086,19 +2032,19 @@
         <v>-1</v>
       </c>
       <c r="I21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L21">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M21">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N21">
         <v>-1</v>
@@ -2122,19 +2068,19 @@
         <v>7</v>
       </c>
       <c r="U21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V21">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X21">
         <v>9</v>
       </c>
       <c r="Y21">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -2163,19 +2109,19 @@
         <v>-1</v>
       </c>
       <c r="I22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N22">
         <v>-1</v>
@@ -2202,16 +2148,16 @@
         <v>10</v>
       </c>
       <c r="V22">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W22">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X22">
         <v>9</v>
       </c>
       <c r="Y22">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -2240,19 +2186,19 @@
         <v>-1</v>
       </c>
       <c r="I23">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J23">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N23">
         <v>-1</v>
@@ -2288,7 +2234,7 @@
         <v>10</v>
       </c>
       <c r="Y23">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -2317,19 +2263,19 @@
         <v>-1</v>
       </c>
       <c r="I24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K24">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L24">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M24">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N24">
         <v>-1</v>
@@ -2359,7 +2305,7 @@
         <v>6</v>
       </c>
       <c r="W24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X24">
         <v>7</v>
@@ -2394,19 +2340,19 @@
         <v>-1</v>
       </c>
       <c r="I25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N25">
         <v>-1</v>
@@ -2471,19 +2417,19 @@
         <v>-1</v>
       </c>
       <c r="I26">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N26">
         <v>-1</v>
@@ -2536,7 +2482,7 @@
         <v>-1</v>
       </c>
       <c r="I27">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N27">
         <v>-1</v>
@@ -2577,19 +2523,19 @@
         <v>-1</v>
       </c>
       <c r="I28">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J28">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K28">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L28">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M28">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N28">
         <v>-1</v>
@@ -2613,16 +2559,16 @@
         <v>7</v>
       </c>
       <c r="U28">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V28">
+        <v>7</v>
+      </c>
+      <c r="W28">
         <v>6</v>
       </c>
-      <c r="W28">
-        <v>5</v>
-      </c>
       <c r="X28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y28">
         <v>7</v>
@@ -2779,7 +2725,7 @@
         <v>100</v>
       </c>
       <c r="M4">
-        <v>84</v>
+        <v>91.5</v>
       </c>
       <c r="N4">
         <v>97.40000000000001</v>
@@ -2797,7 +2743,7 @@
         <v>100</v>
       </c>
       <c r="S4">
-        <v>84</v>
+        <v>91.5</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2829,7 +2775,7 @@
         <v>100</v>
       </c>
       <c r="J5">
-        <v>100</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="K5">
         <v>100</v>
@@ -2847,7 +2793,7 @@
         <v>100</v>
       </c>
       <c r="P5">
-        <v>100</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="Q5">
         <v>100</v>
@@ -2944,10 +2890,10 @@
         <v>94.90000000000001</v>
       </c>
       <c r="I7">
-        <v>95.2</v>
+        <v>90.5</v>
       </c>
       <c r="J7">
-        <v>92.3</v>
+        <v>82.7</v>
       </c>
       <c r="K7">
         <v>100</v>
@@ -2956,16 +2902,16 @@
         <v>100</v>
       </c>
       <c r="M7">
-        <v>100</v>
+        <v>91.5</v>
       </c>
       <c r="N7">
         <v>94.90000000000001</v>
       </c>
       <c r="O7">
-        <v>95.2</v>
+        <v>90.5</v>
       </c>
       <c r="P7">
-        <v>92.3</v>
+        <v>82.7</v>
       </c>
       <c r="Q7">
         <v>100</v>
@@ -2974,7 +2920,7 @@
         <v>100</v>
       </c>
       <c r="S7">
-        <v>100</v>
+        <v>91.5</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -3003,7 +2949,7 @@
         <v>97.40000000000001</v>
       </c>
       <c r="I8">
-        <v>95.2</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="J8">
         <v>100</v>
@@ -3021,7 +2967,7 @@
         <v>97.40000000000001</v>
       </c>
       <c r="O8">
-        <v>95.2</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="P8">
         <v>100</v>
@@ -3062,7 +3008,7 @@
         <v>97.40000000000001</v>
       </c>
       <c r="I9">
-        <v>90.5</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="J9">
         <v>92.3</v>
@@ -3074,13 +3020,13 @@
         <v>100</v>
       </c>
       <c r="M9">
-        <v>84</v>
+        <v>91.5</v>
       </c>
       <c r="N9">
         <v>97.40000000000001</v>
       </c>
       <c r="O9">
-        <v>90.5</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="P9">
         <v>92.3</v>
@@ -3092,7 +3038,7 @@
         <v>100</v>
       </c>
       <c r="S9">
-        <v>84</v>
+        <v>91.5</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -3180,7 +3126,7 @@
         <v>76.90000000000001</v>
       </c>
       <c r="I11">
-        <v>95.2</v>
+        <v>90.5</v>
       </c>
       <c r="J11">
         <v>84.59999999999999</v>
@@ -3192,13 +3138,13 @@
         <v>100</v>
       </c>
       <c r="M11">
-        <v>92</v>
+        <v>95.7</v>
       </c>
       <c r="N11">
         <v>76.90000000000001</v>
       </c>
       <c r="O11">
-        <v>95.2</v>
+        <v>90.5</v>
       </c>
       <c r="P11">
         <v>84.59999999999999</v>
@@ -3210,7 +3156,7 @@
         <v>100</v>
       </c>
       <c r="S11">
-        <v>92</v>
+        <v>95.7</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -3298,7 +3244,7 @@
         <v>92.3</v>
       </c>
       <c r="I13">
-        <v>90.5</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="J13">
         <v>100</v>
@@ -3310,13 +3256,13 @@
         <v>100</v>
       </c>
       <c r="M13">
-        <v>96</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="N13">
         <v>92.3</v>
       </c>
       <c r="O13">
-        <v>90.5</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="P13">
         <v>100</v>
@@ -3328,7 +3274,7 @@
         <v>100</v>
       </c>
       <c r="S13">
-        <v>96</v>
+        <v>97.90000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -3357,7 +3303,7 @@
         <v>97.40000000000001</v>
       </c>
       <c r="I14">
-        <v>100</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="J14">
         <v>92.3</v>
@@ -3375,7 +3321,7 @@
         <v>97.40000000000001</v>
       </c>
       <c r="O14">
-        <v>100</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="P14">
         <v>92.3</v>
@@ -3475,10 +3421,10 @@
         <v>100</v>
       </c>
       <c r="I16">
-        <v>100</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="J16">
-        <v>96.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="K16">
         <v>100</v>
@@ -3493,10 +3439,10 @@
         <v>100</v>
       </c>
       <c r="O16">
-        <v>100</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="P16">
-        <v>96.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="Q16">
         <v>100</v>
@@ -3537,7 +3483,7 @@
         <v>100</v>
       </c>
       <c r="J17">
-        <v>92.3</v>
+        <v>94.2</v>
       </c>
       <c r="K17">
         <v>100</v>
@@ -3555,7 +3501,7 @@
         <v>100</v>
       </c>
       <c r="P17">
-        <v>92.3</v>
+        <v>94.2</v>
       </c>
       <c r="Q17">
         <v>100</v>
@@ -3596,7 +3542,7 @@
         <v>95.2</v>
       </c>
       <c r="J18">
-        <v>92.3</v>
+        <v>96.2</v>
       </c>
       <c r="K18">
         <v>100</v>
@@ -3614,7 +3560,7 @@
         <v>95.2</v>
       </c>
       <c r="P18">
-        <v>92.3</v>
+        <v>96.2</v>
       </c>
       <c r="Q18">
         <v>100</v>
@@ -3655,7 +3601,7 @@
         <v>100</v>
       </c>
       <c r="J19">
-        <v>100</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="K19">
         <v>100</v>
@@ -3673,7 +3619,7 @@
         <v>100</v>
       </c>
       <c r="P19">
-        <v>100</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="Q19">
         <v>100</v>
@@ -3770,7 +3716,7 @@
         <v>100</v>
       </c>
       <c r="I21">
-        <v>100</v>
+        <v>95.2</v>
       </c>
       <c r="J21">
         <v>100</v>
@@ -3782,13 +3728,13 @@
         <v>100</v>
       </c>
       <c r="M21">
-        <v>96</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="N21">
         <v>100</v>
       </c>
       <c r="O21">
-        <v>100</v>
+        <v>95.2</v>
       </c>
       <c r="P21">
         <v>100</v>
@@ -3800,7 +3746,7 @@
         <v>100</v>
       </c>
       <c r="S21">
-        <v>96</v>
+        <v>97.90000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -3832,7 +3778,7 @@
         <v>100</v>
       </c>
       <c r="J22">
-        <v>96.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="K22">
         <v>100</v>
@@ -3850,7 +3796,7 @@
         <v>100</v>
       </c>
       <c r="P22">
-        <v>96.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="Q22">
         <v>100</v>
@@ -3891,7 +3837,7 @@
         <v>100</v>
       </c>
       <c r="J23">
-        <v>92.3</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="K23">
         <v>100</v>
@@ -3909,7 +3855,7 @@
         <v>100</v>
       </c>
       <c r="P23">
-        <v>92.3</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="Q23">
         <v>100</v>
@@ -3947,10 +3893,10 @@
         <v>100</v>
       </c>
       <c r="I24">
-        <v>90.5</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="J24">
-        <v>92.3</v>
+        <v>88.5</v>
       </c>
       <c r="K24">
         <v>100</v>
@@ -3959,16 +3905,16 @@
         <v>100</v>
       </c>
       <c r="M24">
-        <v>96</v>
+        <v>91.5</v>
       </c>
       <c r="N24">
         <v>100</v>
       </c>
       <c r="O24">
-        <v>90.5</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="P24">
-        <v>92.3</v>
+        <v>88.5</v>
       </c>
       <c r="Q24">
         <v>100</v>
@@ -3977,7 +3923,7 @@
         <v>100</v>
       </c>
       <c r="S24">
-        <v>96</v>
+        <v>91.5</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -4150,7 +4096,7 @@
         <v>85.7</v>
       </c>
       <c r="J28">
-        <v>84.59999999999999</v>
+        <v>86.5</v>
       </c>
       <c r="K28">
         <v>100</v>
@@ -4159,7 +4105,7 @@
         <v>100</v>
       </c>
       <c r="M28">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N28">
         <v>76.90000000000001</v>
@@ -4168,7 +4114,7 @@
         <v>85.7</v>
       </c>
       <c r="P28">
-        <v>84.59999999999999</v>
+        <v>86.5</v>
       </c>
       <c r="Q28">
         <v>100</v>
@@ -4177,7 +4123,7 @@
         <v>100</v>
       </c>
       <c r="S28">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -4237,28 +4183,28 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>49</v>
       </c>
       <c r="C2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="G2" s="2">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="H2">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -4269,28 +4215,28 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G3" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>7.6</v>
+        <v>9</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -4301,7 +4247,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>51</v>
@@ -4310,19 +4256,19 @@
         <v>24</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
-        <v>95.8</v>
+        <v>100</v>
       </c>
       <c r="G4" s="2">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>8.300000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -4333,28 +4279,28 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
       </c>
       <c r="C5">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5">
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G5" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>8.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -4365,10 +4311,10 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C6">
         <v>24</v>
@@ -4386,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -4397,16 +4343,16 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4418,7 +4364,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -4471,7 +4417,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4506,19 +4452,19 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>22330051920205</v>
+        <v>22330051920393</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
         <v>49</v>
@@ -4529,208 +4475,24 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>22330051920205</v>
+        <v>22330051920073</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>22330051920229</v>
-      </c>
-      <c r="B4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>22330051920229</v>
-      </c>
-      <c r="B5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>22330051920393</v>
-      </c>
-      <c r="B6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>22330051920374</v>
-      </c>
-      <c r="B7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>22330051920215</v>
-      </c>
-      <c r="B8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>22330051920073</v>
-      </c>
-      <c r="B9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>22330051920222</v>
-      </c>
-      <c r="B10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>22330051920224</v>
-      </c>
-      <c r="B11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11">
         <v>5</v>
       </c>
     </row>

--- a/grupos/6ARHV - Estadisticos 20242.xlsx
+++ b/grupos/6ARHV - Estadisticos 20242.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="61">
   <si>
     <t>Materia</t>
   </si>
@@ -197,19 +197,10 @@
     <t>CHONKOA</t>
   </si>
   <si>
-    <t>PUGA</t>
-  </si>
-  <si>
     <t>SANDOVAL</t>
   </si>
   <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
     <t>ABRIL</t>
-  </si>
-  <si>
-    <t>HILEN ALELI</t>
   </si>
 </sst>
 </file>
@@ -720,7 +711,7 @@
         <v>5</v>
       </c>
       <c r="H4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I4">
         <v>6</v>
@@ -797,7 +788,7 @@
         <v>9</v>
       </c>
       <c r="H5">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I5">
         <v>9</v>
@@ -833,7 +824,7 @@
         <v>-1</v>
       </c>
       <c r="T5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U5">
         <v>9</v>
@@ -874,7 +865,7 @@
         <v>10</v>
       </c>
       <c r="H6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I6">
         <v>10</v>
@@ -951,7 +942,7 @@
         <v>9</v>
       </c>
       <c r="H7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I7">
         <v>6</v>
@@ -1028,7 +1019,7 @@
         <v>9</v>
       </c>
       <c r="H8">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I8">
         <v>7</v>
@@ -1064,7 +1055,7 @@
         <v>-1</v>
       </c>
       <c r="T8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U8">
         <v>8</v>
@@ -1105,7 +1096,7 @@
         <v>8</v>
       </c>
       <c r="H9">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I9">
         <v>7</v>
@@ -1141,7 +1132,7 @@
         <v>-1</v>
       </c>
       <c r="T9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U9">
         <v>8</v>
@@ -1182,7 +1173,7 @@
         <v>10</v>
       </c>
       <c r="H10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I10">
         <v>10</v>
@@ -1259,7 +1250,7 @@
         <v>6</v>
       </c>
       <c r="H11">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I11">
         <v>7</v>
@@ -1295,7 +1286,7 @@
         <v>-1</v>
       </c>
       <c r="T11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U11">
         <v>7</v>
@@ -1336,7 +1327,7 @@
         <v>10</v>
       </c>
       <c r="H12">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I12">
         <v>10</v>
@@ -1372,7 +1363,7 @@
         <v>-1</v>
       </c>
       <c r="T12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U12">
         <v>10</v>
@@ -1413,7 +1404,7 @@
         <v>9</v>
       </c>
       <c r="H13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I13">
         <v>6</v>
@@ -1449,7 +1440,7 @@
         <v>-1</v>
       </c>
       <c r="T13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U13">
         <v>6</v>
@@ -1490,7 +1481,7 @@
         <v>9</v>
       </c>
       <c r="H14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I14">
         <v>8</v>
@@ -1526,7 +1517,7 @@
         <v>-1</v>
       </c>
       <c r="T14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U14">
         <v>9</v>
@@ -1567,7 +1558,7 @@
         <v>9</v>
       </c>
       <c r="H15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I15">
         <v>10</v>
@@ -1644,7 +1635,7 @@
         <v>8</v>
       </c>
       <c r="H16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I16">
         <v>9</v>
@@ -1680,7 +1671,7 @@
         <v>-1</v>
       </c>
       <c r="T16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U16">
         <v>10</v>
@@ -1721,7 +1712,7 @@
         <v>9</v>
       </c>
       <c r="H17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I17">
         <v>8</v>
@@ -1757,7 +1748,7 @@
         <v>-1</v>
       </c>
       <c r="T17">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U17">
         <v>9</v>
@@ -1798,7 +1789,7 @@
         <v>7</v>
       </c>
       <c r="H18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I18">
         <v>8</v>
@@ -1834,7 +1825,7 @@
         <v>-1</v>
       </c>
       <c r="T18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U18">
         <v>8</v>
@@ -1875,7 +1866,7 @@
         <v>8</v>
       </c>
       <c r="H19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I19">
         <v>9</v>
@@ -1911,7 +1902,7 @@
         <v>-1</v>
       </c>
       <c r="T19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U19">
         <v>10</v>
@@ -1952,7 +1943,7 @@
         <v>6</v>
       </c>
       <c r="H20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I20">
         <v>8</v>
@@ -1988,7 +1979,7 @@
         <v>-1</v>
       </c>
       <c r="T20">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U20">
         <v>7</v>
@@ -2029,7 +2020,7 @@
         <v>7</v>
       </c>
       <c r="H21">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I21">
         <v>6</v>
@@ -2065,7 +2056,7 @@
         <v>-1</v>
       </c>
       <c r="T21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U21">
         <v>7</v>
@@ -2106,7 +2097,7 @@
         <v>9</v>
       </c>
       <c r="H22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I22">
         <v>9</v>
@@ -2142,7 +2133,7 @@
         <v>-1</v>
       </c>
       <c r="T22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U22">
         <v>10</v>
@@ -2183,7 +2174,7 @@
         <v>9</v>
       </c>
       <c r="H23">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I23">
         <v>9</v>
@@ -2219,7 +2210,7 @@
         <v>-1</v>
       </c>
       <c r="T23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U23">
         <v>9</v>
@@ -2260,7 +2251,7 @@
         <v>7</v>
       </c>
       <c r="H24">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I24">
         <v>6</v>
@@ -2337,7 +2328,7 @@
         <v>10</v>
       </c>
       <c r="H25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I25">
         <v>10</v>
@@ -2373,7 +2364,7 @@
         <v>-1</v>
       </c>
       <c r="T25">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U25">
         <v>10</v>
@@ -2414,7 +2405,7 @@
         <v>10</v>
       </c>
       <c r="H26">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I26">
         <v>9</v>
@@ -2450,7 +2441,7 @@
         <v>-1</v>
       </c>
       <c r="T26">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U26">
         <v>10</v>
@@ -2479,7 +2470,7 @@
         <v>8</v>
       </c>
       <c r="H27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I27">
         <v>8</v>
@@ -2520,7 +2511,7 @@
         <v>7</v>
       </c>
       <c r="H28">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I28">
         <v>7</v>
@@ -2556,7 +2547,7 @@
         <v>-1</v>
       </c>
       <c r="T28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U28">
         <v>6</v>
@@ -2710,7 +2701,7 @@
         <v>84</v>
       </c>
       <c r="H4">
-        <v>97.40000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="I4">
         <v>85.7</v>
@@ -2728,7 +2719,7 @@
         <v>91.5</v>
       </c>
       <c r="N4">
-        <v>97.40000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="O4">
         <v>85.7</v>
@@ -2769,7 +2760,7 @@
         <v>100</v>
       </c>
       <c r="H5">
-        <v>97.40000000000001</v>
+        <v>96.2</v>
       </c>
       <c r="I5">
         <v>100</v>
@@ -2787,7 +2778,7 @@
         <v>100</v>
       </c>
       <c r="N5">
-        <v>97.40000000000001</v>
+        <v>96.2</v>
       </c>
       <c r="O5">
         <v>100</v>
@@ -2887,7 +2878,7 @@
         <v>100</v>
       </c>
       <c r="H7">
-        <v>94.90000000000001</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="I7">
         <v>90.5</v>
@@ -2905,7 +2896,7 @@
         <v>91.5</v>
       </c>
       <c r="N7">
-        <v>94.90000000000001</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="O7">
         <v>90.5</v>
@@ -2946,7 +2937,7 @@
         <v>100</v>
       </c>
       <c r="H8">
-        <v>97.40000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="I8">
         <v>97.59999999999999</v>
@@ -2964,7 +2955,7 @@
         <v>100</v>
       </c>
       <c r="N8">
-        <v>97.40000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="O8">
         <v>97.59999999999999</v>
@@ -3005,7 +2996,7 @@
         <v>84</v>
       </c>
       <c r="H9">
-        <v>97.40000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="I9">
         <v>88.09999999999999</v>
@@ -3023,7 +3014,7 @@
         <v>91.5</v>
       </c>
       <c r="N9">
-        <v>97.40000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="O9">
         <v>88.09999999999999</v>
@@ -3064,7 +3055,7 @@
         <v>100</v>
       </c>
       <c r="H10">
-        <v>100</v>
+        <v>98.7</v>
       </c>
       <c r="I10">
         <v>100</v>
@@ -3082,7 +3073,7 @@
         <v>100</v>
       </c>
       <c r="N10">
-        <v>100</v>
+        <v>98.7</v>
       </c>
       <c r="O10">
         <v>100</v>
@@ -3123,7 +3114,7 @@
         <v>92</v>
       </c>
       <c r="H11">
-        <v>76.90000000000001</v>
+        <v>87.3</v>
       </c>
       <c r="I11">
         <v>90.5</v>
@@ -3141,7 +3132,7 @@
         <v>95.7</v>
       </c>
       <c r="N11">
-        <v>76.90000000000001</v>
+        <v>87.3</v>
       </c>
       <c r="O11">
         <v>90.5</v>
@@ -3182,7 +3173,7 @@
         <v>100</v>
       </c>
       <c r="H12">
-        <v>100</v>
+        <v>98.7</v>
       </c>
       <c r="I12">
         <v>100</v>
@@ -3200,7 +3191,7 @@
         <v>100</v>
       </c>
       <c r="N12">
-        <v>100</v>
+        <v>98.7</v>
       </c>
       <c r="O12">
         <v>100</v>
@@ -3241,7 +3232,7 @@
         <v>96</v>
       </c>
       <c r="H13">
-        <v>92.3</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="I13">
         <v>92.90000000000001</v>
@@ -3259,7 +3250,7 @@
         <v>97.90000000000001</v>
       </c>
       <c r="N13">
-        <v>92.3</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="O13">
         <v>92.90000000000001</v>
@@ -3300,7 +3291,7 @@
         <v>100</v>
       </c>
       <c r="H14">
-        <v>97.40000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="I14">
         <v>92.90000000000001</v>
@@ -3318,7 +3309,7 @@
         <v>100</v>
       </c>
       <c r="N14">
-        <v>97.40000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="O14">
         <v>92.90000000000001</v>
@@ -3359,7 +3350,7 @@
         <v>100</v>
       </c>
       <c r="H15">
-        <v>97.40000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="I15">
         <v>100</v>
@@ -3377,7 +3368,7 @@
         <v>100</v>
       </c>
       <c r="N15">
-        <v>97.40000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="O15">
         <v>100</v>
@@ -3418,7 +3409,7 @@
         <v>100</v>
       </c>
       <c r="H16">
-        <v>100</v>
+        <v>98.7</v>
       </c>
       <c r="I16">
         <v>97.59999999999999</v>
@@ -3436,7 +3427,7 @@
         <v>100</v>
       </c>
       <c r="N16">
-        <v>100</v>
+        <v>98.7</v>
       </c>
       <c r="O16">
         <v>97.59999999999999</v>
@@ -3477,7 +3468,7 @@
         <v>100</v>
       </c>
       <c r="H17">
-        <v>76.90000000000001</v>
+        <v>87.3</v>
       </c>
       <c r="I17">
         <v>100</v>
@@ -3495,7 +3486,7 @@
         <v>100</v>
       </c>
       <c r="N17">
-        <v>76.90000000000001</v>
+        <v>87.3</v>
       </c>
       <c r="O17">
         <v>100</v>
@@ -3536,7 +3527,7 @@
         <v>100</v>
       </c>
       <c r="H18">
-        <v>97.40000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="I18">
         <v>95.2</v>
@@ -3554,7 +3545,7 @@
         <v>100</v>
       </c>
       <c r="N18">
-        <v>97.40000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="O18">
         <v>95.2</v>
@@ -3595,7 +3586,7 @@
         <v>100</v>
       </c>
       <c r="H19">
-        <v>97.40000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="I19">
         <v>100</v>
@@ -3613,7 +3604,7 @@
         <v>100</v>
       </c>
       <c r="N19">
-        <v>97.40000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="O19">
         <v>100</v>
@@ -3654,7 +3645,7 @@
         <v>100</v>
       </c>
       <c r="H20">
-        <v>64.09999999999999</v>
+        <v>82.3</v>
       </c>
       <c r="I20">
         <v>100</v>
@@ -3672,7 +3663,7 @@
         <v>100</v>
       </c>
       <c r="N20">
-        <v>64.09999999999999</v>
+        <v>82.3</v>
       </c>
       <c r="O20">
         <v>100</v>
@@ -3713,7 +3704,7 @@
         <v>96</v>
       </c>
       <c r="H21">
-        <v>100</v>
+        <v>98.7</v>
       </c>
       <c r="I21">
         <v>95.2</v>
@@ -3731,7 +3722,7 @@
         <v>97.90000000000001</v>
       </c>
       <c r="N21">
-        <v>100</v>
+        <v>98.7</v>
       </c>
       <c r="O21">
         <v>95.2</v>
@@ -3772,7 +3763,7 @@
         <v>100</v>
       </c>
       <c r="H22">
-        <v>97.40000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="I22">
         <v>100</v>
@@ -3790,7 +3781,7 @@
         <v>100</v>
       </c>
       <c r="N22">
-        <v>97.40000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="O22">
         <v>100</v>
@@ -3831,7 +3822,7 @@
         <v>100</v>
       </c>
       <c r="H23">
-        <v>97.40000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="I23">
         <v>100</v>
@@ -3849,7 +3840,7 @@
         <v>100</v>
       </c>
       <c r="N23">
-        <v>97.40000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="O23">
         <v>100</v>
@@ -3890,7 +3881,7 @@
         <v>96</v>
       </c>
       <c r="H24">
-        <v>100</v>
+        <v>98.7</v>
       </c>
       <c r="I24">
         <v>88.09999999999999</v>
@@ -3908,7 +3899,7 @@
         <v>91.5</v>
       </c>
       <c r="N24">
-        <v>100</v>
+        <v>98.7</v>
       </c>
       <c r="O24">
         <v>88.09999999999999</v>
@@ -4008,7 +3999,7 @@
         <v>100</v>
       </c>
       <c r="H26">
-        <v>100</v>
+        <v>98.7</v>
       </c>
       <c r="I26">
         <v>100</v>
@@ -4026,7 +4017,7 @@
         <v>100</v>
       </c>
       <c r="N26">
-        <v>100</v>
+        <v>98.7</v>
       </c>
       <c r="O26">
         <v>100</v>
@@ -4055,13 +4046,13 @@
         <v>100</v>
       </c>
       <c r="H27">
-        <v>89.7</v>
+        <v>93.7</v>
       </c>
       <c r="I27">
         <v>100</v>
       </c>
       <c r="N27">
-        <v>89.7</v>
+        <v>93.7</v>
       </c>
       <c r="O27">
         <v>100</v>
@@ -4090,7 +4081,7 @@
         <v>84</v>
       </c>
       <c r="H28">
-        <v>76.90000000000001</v>
+        <v>87.3</v>
       </c>
       <c r="I28">
         <v>85.7</v>
@@ -4108,7 +4099,7 @@
         <v>83</v>
       </c>
       <c r="N28">
-        <v>76.90000000000001</v>
+        <v>87.3</v>
       </c>
       <c r="O28">
         <v>85.7</v>
@@ -4192,19 +4183,19 @@
         <v>25</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G2" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H2">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -4417,7 +4408,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4458,10 +4449,10 @@
         <v>58</v>
       </c>
       <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
         <v>60</v>
-      </c>
-      <c r="D2" t="s">
-        <v>62</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -4470,29 +4461,6 @@
         <v>49</v>
       </c>
       <c r="G2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>22330051920073</v>
-      </c>
-      <c r="B3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3">
         <v>5</v>
       </c>
     </row>

--- a/grupos/6ARHV - Estadisticos 20242.xlsx
+++ b/grupos/6ARHV - Estadisticos 20242.xlsx
@@ -119,7 +119,7 @@
     <t>SILVESTRE OLIVARES MICHELLE</t>
   </si>
   <si>
-    <t>TRUJILLO ------ AMERICA</t>
+    <t>TRUJILLO  AMERICA</t>
   </si>
   <si>
     <t>VAZQUEZ MERLIN ANDREA JANETH</t>
